--- a/biology/Zoologie/Choerophryne_allisoni/Choerophryne_allisoni.xlsx
+++ b/biology/Zoologie/Choerophryne_allisoni/Choerophryne_allisoni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Choerophryne allisoni est une espèce d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Choerophryne allisoni est une espèce d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la province des Hautes-Terres méridionales en Papouasie-Nouvelle-Guinée. De découverte récente, elle n'est connue que dans sa localité type, sur le mont Sisa, à environ 2 000 m d'altitude[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la province des Hautes-Terres méridionales en Papouasie-Nouvelle-Guinée. De découverte récente, elle n'est connue que dans sa localité type, sur le mont Sisa, à environ 2 000 m d'altitude,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Choerophryne allisoni mesure environ 11 à 12 mm. Son dos est brun foncé tacheté de blanc sur les côtés et comportant quelques taches rougeâtres[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Choerophryne allisoni mesure environ 11 à 12 mm. Son dos est brun foncé tacheté de blanc sur les côtés et comportant quelques taches rougeâtres.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, allisoni, lui a été donné en référence à Allen Allison, zoologiste américain en reconnaissance de sa contribution à l'herpétologie de la Nouvelle Guinée[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, allisoni, lui a été donné en référence à Allen Allison, zoologiste américain en reconnaissance de sa contribution à l'herpétologie de la Nouvelle Guinée.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Richards &amp; Burton, 2003 : A new species of Choerophryne (Anura: Microhylidae) from Southern Highlands Province, Papua New Guinea. Transactions of the Royal Society of S. Australia, vol. 127, p. 47-51 (texte intégral).</t>
         </is>
